--- a/cypress/fixtures/excelData.xlsx
+++ b/cypress/fixtures/excelData.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\GitHub\Test\Adactin\cypress\fixtures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="8510"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>username</t>
   </si>
@@ -109,47 +114,16 @@
     <t>Francis@gmail.com</t>
   </si>
   <si>
-    <t>Melbourne</t>
+    <t>26/09/2022</t>
   </si>
   <si>
-    <t>Hotel Sunshine</t>
-  </si>
-  <si>
-    <t>Double</t>
-  </si>
-  <si>
-    <t>2 - Two</t>
-  </si>
-  <si>
-    <t>jack</t>
-  </si>
-  <si>
-    <t>sathish</t>
-  </si>
-  <si>
-    <t>Master Card</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>3 - Three</t>
-  </si>
-  <si>
-    <t>Rajesh</t>
-  </si>
-  <si>
-    <t>kannan</t>
-  </si>
-  <si>
-    <t>October</t>
+    <t>27/09/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,41 +173,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -244,10 +226,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -285,71 +267,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -377,7 +359,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -400,11 +382,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -413,13 +395,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -429,7 +411,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -438,7 +420,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -447,7 +429,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -455,10 +437,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -527,34 +509,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S193"/>
+  <dimension ref="A1:S191"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="6" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +576,7 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
@@ -613,7 +586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -632,11 +605,11 @@
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2">
-        <v>44721</v>
+      <c r="G2" s="11" t="s">
+        <v>31</v>
       </c>
-      <c r="H2" s="2">
-        <v>44813</v>
+      <c r="H2" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>24</v>
@@ -662,7 +635,7 @@
       <c r="P2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="9">
         <v>2022</v>
       </c>
       <c r="R2" s="3">
@@ -672,125 +645,49 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="2">
-        <v>44751</v>
-      </c>
-      <c r="H3" s="2">
-        <v>44843</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="3">
-        <v>1234567890123451</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>2022</v>
-      </c>
-      <c r="R3" s="3">
-        <v>222</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="2">
-        <v>44782</v>
-      </c>
-      <c r="H4" s="2">
-        <v>44874</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="3">
-        <v>1234567890123452</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>2022</v>
-      </c>
-      <c r="R4" s="3">
-        <v>333</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="3" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -807,11 +704,11 @@
       <c r="N5" s="3"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="9"/>
       <c r="R5" s="3"/>
       <c r="S5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -828,11 +725,11 @@
       <c r="N6" s="3"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="3"/>
       <c r="S6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -849,11 +746,11 @@
       <c r="N7" s="3"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="9"/>
       <c r="R7" s="3"/>
       <c r="S7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -870,11 +767,11 @@
       <c r="N8" s="3"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="9"/>
       <c r="R8" s="3"/>
       <c r="S8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -891,11 +788,11 @@
       <c r="N9" s="3"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="3"/>
+      <c r="Q9" s="9"/>
       <c r="R9" s="3"/>
       <c r="S9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -912,11 +809,11 @@
       <c r="N10" s="3"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="9"/>
       <c r="R10" s="3"/>
       <c r="S10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -933,11 +830,11 @@
       <c r="N11" s="3"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="9"/>
       <c r="R11" s="3"/>
       <c r="S11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -954,11 +851,11 @@
       <c r="N12" s="3"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="3"/>
       <c r="S12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -975,11 +872,11 @@
       <c r="N13" s="3"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="3"/>
+      <c r="Q13" s="9"/>
       <c r="R13" s="3"/>
       <c r="S13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -996,11 +893,11 @@
       <c r="N14" s="3"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="9"/>
       <c r="R14" s="3"/>
       <c r="S14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row r="15" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1017,11 +914,11 @@
       <c r="N15" s="3"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="3"/>
+      <c r="Q15" s="9"/>
       <c r="R15" s="3"/>
       <c r="S15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+    <row r="16" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1038,11 +935,11 @@
       <c r="N16" s="3"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="3"/>
+      <c r="Q16" s="9"/>
       <c r="R16" s="3"/>
       <c r="S16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row r="17" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1059,11 +956,11 @@
       <c r="N17" s="3"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="3"/>
+      <c r="Q17" s="9"/>
       <c r="R17" s="3"/>
       <c r="S17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row r="18" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1080,11 +977,11 @@
       <c r="N18" s="3"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="3"/>
+      <c r="Q18" s="9"/>
       <c r="R18" s="3"/>
       <c r="S18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row r="19" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1101,11 +998,11 @@
       <c r="N19" s="3"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="3"/>
+      <c r="Q19" s="9"/>
       <c r="R19" s="3"/>
       <c r="S19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row r="20" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1122,11 +1019,11 @@
       <c r="N20" s="3"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="3"/>
+      <c r="Q20" s="9"/>
       <c r="R20" s="3"/>
       <c r="S20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row r="21" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1143,11 +1040,11 @@
       <c r="N21" s="3"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="3"/>
+      <c r="Q21" s="9"/>
       <c r="R21" s="3"/>
       <c r="S21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row r="22" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1164,11 +1061,11 @@
       <c r="N22" s="3"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="3"/>
+      <c r="Q22" s="9"/>
       <c r="R22" s="3"/>
       <c r="S22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row r="23" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1185,11 +1082,11 @@
       <c r="N23" s="3"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="3"/>
+      <c r="Q23" s="9"/>
       <c r="R23" s="3"/>
       <c r="S23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+    <row r="24" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1206,11 +1103,11 @@
       <c r="N24" s="3"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="3"/>
+      <c r="Q24" s="9"/>
       <c r="R24" s="3"/>
       <c r="S24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+    <row r="25" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1227,11 +1124,11 @@
       <c r="N25" s="3"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="3"/>
+      <c r="Q25" s="9"/>
       <c r="R25" s="3"/>
       <c r="S25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+    <row r="26" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1248,11 +1145,11 @@
       <c r="N26" s="3"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="3"/>
+      <c r="Q26" s="9"/>
       <c r="R26" s="3"/>
       <c r="S26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+    <row r="27" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1269,11 +1166,11 @@
       <c r="N27" s="3"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="3"/>
+      <c r="Q27" s="9"/>
       <c r="R27" s="3"/>
       <c r="S27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1290,11 +1187,11 @@
       <c r="N28" s="3"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="3"/>
+      <c r="Q28" s="9"/>
       <c r="R28" s="3"/>
       <c r="S28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1311,11 +1208,11 @@
       <c r="N29" s="3"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="3"/>
+      <c r="Q29" s="9"/>
       <c r="R29" s="3"/>
       <c r="S29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1332,11 +1229,11 @@
       <c r="N30" s="3"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="3"/>
+      <c r="Q30" s="9"/>
       <c r="R30" s="3"/>
       <c r="S30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1353,11 +1250,11 @@
       <c r="N31" s="3"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
-      <c r="Q31" s="3"/>
+      <c r="Q31" s="9"/>
       <c r="R31" s="3"/>
       <c r="S31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1374,11 +1271,11 @@
       <c r="N32" s="3"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
-      <c r="Q32" s="3"/>
+      <c r="Q32" s="9"/>
       <c r="R32" s="3"/>
       <c r="S32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1395,11 +1292,11 @@
       <c r="N33" s="3"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="3"/>
+      <c r="Q33" s="9"/>
       <c r="R33" s="3"/>
       <c r="S33" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1416,11 +1313,11 @@
       <c r="N34" s="3"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="3"/>
+      <c r="Q34" s="9"/>
       <c r="R34" s="3"/>
       <c r="S34" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1437,11 +1334,11 @@
       <c r="N35" s="3"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="3"/>
+      <c r="Q35" s="9"/>
       <c r="R35" s="3"/>
       <c r="S35" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1458,11 +1355,11 @@
       <c r="N36" s="3"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="3"/>
+      <c r="Q36" s="9"/>
       <c r="R36" s="3"/>
       <c r="S36" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1479,11 +1376,11 @@
       <c r="N37" s="3"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
-      <c r="Q37" s="3"/>
+      <c r="Q37" s="9"/>
       <c r="R37" s="3"/>
       <c r="S37" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1500,11 +1397,11 @@
       <c r="N38" s="3"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-      <c r="Q38" s="3"/>
+      <c r="Q38" s="9"/>
       <c r="R38" s="3"/>
       <c r="S38" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1521,11 +1418,11 @@
       <c r="N39" s="3"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-      <c r="Q39" s="3"/>
+      <c r="Q39" s="9"/>
       <c r="R39" s="3"/>
       <c r="S39" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1542,11 +1439,11 @@
       <c r="N40" s="3"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-      <c r="Q40" s="3"/>
+      <c r="Q40" s="9"/>
       <c r="R40" s="3"/>
       <c r="S40" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1563,11 +1460,11 @@
       <c r="N41" s="3"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-      <c r="Q41" s="3"/>
+      <c r="Q41" s="9"/>
       <c r="R41" s="3"/>
       <c r="S41" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1584,11 +1481,11 @@
       <c r="N42" s="3"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="3"/>
+      <c r="Q42" s="9"/>
       <c r="R42" s="3"/>
       <c r="S42" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1605,11 +1502,11 @@
       <c r="N43" s="3"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="3"/>
+      <c r="Q43" s="9"/>
       <c r="R43" s="3"/>
       <c r="S43" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1626,11 +1523,11 @@
       <c r="N44" s="3"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
-      <c r="Q44" s="3"/>
+      <c r="Q44" s="9"/>
       <c r="R44" s="3"/>
       <c r="S44" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1647,11 +1544,11 @@
       <c r="N45" s="3"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
-      <c r="Q45" s="3"/>
+      <c r="Q45" s="9"/>
       <c r="R45" s="3"/>
       <c r="S45" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1668,11 +1565,11 @@
       <c r="N46" s="3"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
-      <c r="Q46" s="3"/>
+      <c r="Q46" s="9"/>
       <c r="R46" s="3"/>
       <c r="S46" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1689,11 +1586,11 @@
       <c r="N47" s="3"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
-      <c r="Q47" s="3"/>
+      <c r="Q47" s="9"/>
       <c r="R47" s="3"/>
       <c r="S47" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1710,11 +1607,11 @@
       <c r="N48" s="3"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
-      <c r="Q48" s="3"/>
+      <c r="Q48" s="9"/>
       <c r="R48" s="3"/>
       <c r="S48" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1731,11 +1628,11 @@
       <c r="N49" s="3"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
-      <c r="Q49" s="3"/>
+      <c r="Q49" s="9"/>
       <c r="R49" s="3"/>
       <c r="S49" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1752,11 +1649,11 @@
       <c r="N50" s="3"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
-      <c r="Q50" s="3"/>
+      <c r="Q50" s="9"/>
       <c r="R50" s="3"/>
       <c r="S50" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1773,11 +1670,11 @@
       <c r="N51" s="3"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-      <c r="Q51" s="3"/>
+      <c r="Q51" s="9"/>
       <c r="R51" s="3"/>
       <c r="S51" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1794,11 +1691,11 @@
       <c r="N52" s="3"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
-      <c r="Q52" s="3"/>
+      <c r="Q52" s="9"/>
       <c r="R52" s="3"/>
       <c r="S52" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1815,11 +1712,11 @@
       <c r="N53" s="3"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
-      <c r="Q53" s="3"/>
+      <c r="Q53" s="9"/>
       <c r="R53" s="3"/>
       <c r="S53" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1836,11 +1733,11 @@
       <c r="N54" s="3"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
-      <c r="Q54" s="3"/>
+      <c r="Q54" s="9"/>
       <c r="R54" s="3"/>
       <c r="S54" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1857,11 +1754,11 @@
       <c r="N55" s="3"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
-      <c r="Q55" s="3"/>
+      <c r="Q55" s="9"/>
       <c r="R55" s="3"/>
       <c r="S55" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1878,11 +1775,11 @@
       <c r="N56" s="3"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-      <c r="Q56" s="3"/>
+      <c r="Q56" s="9"/>
       <c r="R56" s="3"/>
       <c r="S56" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1899,11 +1796,11 @@
       <c r="N57" s="3"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-      <c r="Q57" s="3"/>
+      <c r="Q57" s="9"/>
       <c r="R57" s="3"/>
       <c r="S57" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1920,11 +1817,11 @@
       <c r="N58" s="3"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-      <c r="Q58" s="3"/>
+      <c r="Q58" s="9"/>
       <c r="R58" s="3"/>
       <c r="S58" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1941,11 +1838,11 @@
       <c r="N59" s="3"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="Q59" s="3"/>
+      <c r="Q59" s="9"/>
       <c r="R59" s="3"/>
       <c r="S59" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1962,11 +1859,11 @@
       <c r="N60" s="3"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-      <c r="Q60" s="3"/>
+      <c r="Q60" s="9"/>
       <c r="R60" s="3"/>
       <c r="S60" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1983,11 +1880,11 @@
       <c r="N61" s="3"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
-      <c r="Q61" s="3"/>
+      <c r="Q61" s="9"/>
       <c r="R61" s="3"/>
       <c r="S61" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2004,11 +1901,11 @@
       <c r="N62" s="3"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-      <c r="Q62" s="3"/>
+      <c r="Q62" s="9"/>
       <c r="R62" s="3"/>
       <c r="S62" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2025,11 +1922,11 @@
       <c r="N63" s="3"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
-      <c r="Q63" s="3"/>
+      <c r="Q63" s="9"/>
       <c r="R63" s="3"/>
       <c r="S63" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2046,11 +1943,11 @@
       <c r="N64" s="3"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
-      <c r="Q64" s="3"/>
+      <c r="Q64" s="9"/>
       <c r="R64" s="3"/>
       <c r="S64" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2067,11 +1964,11 @@
       <c r="N65" s="3"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
-      <c r="Q65" s="3"/>
+      <c r="Q65" s="9"/>
       <c r="R65" s="3"/>
       <c r="S65" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2088,11 +1985,11 @@
       <c r="N66" s="3"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
-      <c r="Q66" s="3"/>
+      <c r="Q66" s="9"/>
       <c r="R66" s="3"/>
       <c r="S66" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2109,11 +2006,11 @@
       <c r="N67" s="3"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
-      <c r="Q67" s="3"/>
+      <c r="Q67" s="9"/>
       <c r="R67" s="3"/>
       <c r="S67" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2130,11 +2027,11 @@
       <c r="N68" s="3"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
-      <c r="Q68" s="3"/>
+      <c r="Q68" s="9"/>
       <c r="R68" s="3"/>
       <c r="S68" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2151,11 +2048,11 @@
       <c r="N69" s="3"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
-      <c r="Q69" s="3"/>
+      <c r="Q69" s="9"/>
       <c r="R69" s="3"/>
       <c r="S69" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2172,11 +2069,11 @@
       <c r="N70" s="3"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
-      <c r="Q70" s="3"/>
+      <c r="Q70" s="9"/>
       <c r="R70" s="3"/>
       <c r="S70" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2193,11 +2090,11 @@
       <c r="N71" s="3"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
-      <c r="Q71" s="3"/>
+      <c r="Q71" s="9"/>
       <c r="R71" s="3"/>
       <c r="S71" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2214,11 +2111,11 @@
       <c r="N72" s="3"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
-      <c r="Q72" s="3"/>
+      <c r="Q72" s="9"/>
       <c r="R72" s="3"/>
       <c r="S72" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2235,11 +2132,11 @@
       <c r="N73" s="3"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
-      <c r="Q73" s="3"/>
+      <c r="Q73" s="9"/>
       <c r="R73" s="3"/>
       <c r="S73" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2256,11 +2153,11 @@
       <c r="N74" s="3"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
-      <c r="Q74" s="3"/>
+      <c r="Q74" s="9"/>
       <c r="R74" s="3"/>
       <c r="S74" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2277,11 +2174,11 @@
       <c r="N75" s="3"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
-      <c r="Q75" s="3"/>
+      <c r="Q75" s="9"/>
       <c r="R75" s="3"/>
       <c r="S75" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2298,11 +2195,11 @@
       <c r="N76" s="3"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
-      <c r="Q76" s="3"/>
+      <c r="Q76" s="9"/>
       <c r="R76" s="3"/>
       <c r="S76" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2319,11 +2216,11 @@
       <c r="N77" s="3"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
-      <c r="Q77" s="3"/>
+      <c r="Q77" s="9"/>
       <c r="R77" s="3"/>
       <c r="S77" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2340,11 +2237,11 @@
       <c r="N78" s="3"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
-      <c r="Q78" s="3"/>
+      <c r="Q78" s="9"/>
       <c r="R78" s="3"/>
       <c r="S78" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2361,11 +2258,11 @@
       <c r="N79" s="3"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
-      <c r="Q79" s="3"/>
+      <c r="Q79" s="9"/>
       <c r="R79" s="3"/>
       <c r="S79" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2382,11 +2279,11 @@
       <c r="N80" s="3"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
-      <c r="Q80" s="3"/>
+      <c r="Q80" s="9"/>
       <c r="R80" s="3"/>
       <c r="S80" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2403,11 +2300,11 @@
       <c r="N81" s="3"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
-      <c r="Q81" s="3"/>
+      <c r="Q81" s="9"/>
       <c r="R81" s="3"/>
       <c r="S81" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2424,11 +2321,11 @@
       <c r="N82" s="3"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
-      <c r="Q82" s="3"/>
+      <c r="Q82" s="9"/>
       <c r="R82" s="3"/>
       <c r="S82" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2445,11 +2342,11 @@
       <c r="N83" s="3"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
-      <c r="Q83" s="3"/>
+      <c r="Q83" s="9"/>
       <c r="R83" s="3"/>
       <c r="S83" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2466,11 +2363,11 @@
       <c r="N84" s="3"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
-      <c r="Q84" s="3"/>
+      <c r="Q84" s="9"/>
       <c r="R84" s="3"/>
       <c r="S84" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2487,11 +2384,11 @@
       <c r="N85" s="3"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
-      <c r="Q85" s="3"/>
+      <c r="Q85" s="9"/>
       <c r="R85" s="3"/>
       <c r="S85" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2508,11 +2405,11 @@
       <c r="N86" s="3"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
-      <c r="Q86" s="3"/>
+      <c r="Q86" s="9"/>
       <c r="R86" s="3"/>
       <c r="S86" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2529,11 +2426,11 @@
       <c r="N87" s="3"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
-      <c r="Q87" s="3"/>
+      <c r="Q87" s="9"/>
       <c r="R87" s="3"/>
       <c r="S87" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2550,11 +2447,11 @@
       <c r="N88" s="3"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
-      <c r="Q88" s="3"/>
+      <c r="Q88" s="9"/>
       <c r="R88" s="3"/>
       <c r="S88" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2571,11 +2468,11 @@
       <c r="N89" s="3"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
-      <c r="Q89" s="3"/>
+      <c r="Q89" s="9"/>
       <c r="R89" s="3"/>
       <c r="S89" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2592,11 +2489,11 @@
       <c r="N90" s="3"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
-      <c r="Q90" s="3"/>
+      <c r="Q90" s="9"/>
       <c r="R90" s="3"/>
       <c r="S90" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2613,11 +2510,11 @@
       <c r="N91" s="3"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
-      <c r="Q91" s="3"/>
+      <c r="Q91" s="9"/>
       <c r="R91" s="3"/>
       <c r="S91" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2634,11 +2531,11 @@
       <c r="N92" s="3"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
-      <c r="Q92" s="3"/>
+      <c r="Q92" s="9"/>
       <c r="R92" s="3"/>
       <c r="S92" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2655,11 +2552,11 @@
       <c r="N93" s="3"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
-      <c r="Q93" s="3"/>
+      <c r="Q93" s="9"/>
       <c r="R93" s="3"/>
       <c r="S93" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2676,11 +2573,11 @@
       <c r="N94" s="3"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
-      <c r="Q94" s="3"/>
+      <c r="Q94" s="9"/>
       <c r="R94" s="3"/>
       <c r="S94" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2697,11 +2594,11 @@
       <c r="N95" s="3"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
-      <c r="Q95" s="3"/>
+      <c r="Q95" s="9"/>
       <c r="R95" s="3"/>
       <c r="S95" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2718,11 +2615,11 @@
       <c r="N96" s="3"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
-      <c r="Q96" s="3"/>
+      <c r="Q96" s="9"/>
       <c r="R96" s="3"/>
       <c r="S96" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2739,11 +2636,11 @@
       <c r="N97" s="3"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
-      <c r="Q97" s="3"/>
+      <c r="Q97" s="9"/>
       <c r="R97" s="3"/>
       <c r="S97" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2760,11 +2657,11 @@
       <c r="N98" s="3"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
-      <c r="Q98" s="3"/>
+      <c r="Q98" s="9"/>
       <c r="R98" s="3"/>
       <c r="S98" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2781,11 +2678,11 @@
       <c r="N99" s="3"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
-      <c r="Q99" s="3"/>
+      <c r="Q99" s="9"/>
       <c r="R99" s="3"/>
       <c r="S99" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2802,11 +2699,11 @@
       <c r="N100" s="3"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
-      <c r="Q100" s="3"/>
+      <c r="Q100" s="9"/>
       <c r="R100" s="3"/>
       <c r="S100" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2823,11 +2720,11 @@
       <c r="N101" s="3"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
-      <c r="Q101" s="3"/>
+      <c r="Q101" s="9"/>
       <c r="R101" s="3"/>
       <c r="S101" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2844,11 +2741,11 @@
       <c r="N102" s="3"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
-      <c r="Q102" s="3"/>
+      <c r="Q102" s="9"/>
       <c r="R102" s="3"/>
       <c r="S102" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2865,11 +2762,11 @@
       <c r="N103" s="3"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
-      <c r="Q103" s="3"/>
+      <c r="Q103" s="9"/>
       <c r="R103" s="3"/>
       <c r="S103" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2886,11 +2783,11 @@
       <c r="N104" s="3"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
-      <c r="Q104" s="3"/>
+      <c r="Q104" s="9"/>
       <c r="R104" s="3"/>
       <c r="S104" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2907,11 +2804,11 @@
       <c r="N105" s="3"/>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
-      <c r="Q105" s="3"/>
+      <c r="Q105" s="9"/>
       <c r="R105" s="3"/>
       <c r="S105" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2928,11 +2825,11 @@
       <c r="N106" s="3"/>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
-      <c r="Q106" s="3"/>
+      <c r="Q106" s="9"/>
       <c r="R106" s="3"/>
       <c r="S106" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2949,11 +2846,11 @@
       <c r="N107" s="3"/>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
-      <c r="Q107" s="3"/>
+      <c r="Q107" s="9"/>
       <c r="R107" s="3"/>
       <c r="S107" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2970,11 +2867,11 @@
       <c r="N108" s="3"/>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
-      <c r="Q108" s="3"/>
+      <c r="Q108" s="9"/>
       <c r="R108" s="3"/>
       <c r="S108" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2991,11 +2888,11 @@
       <c r="N109" s="3"/>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
-      <c r="Q109" s="3"/>
+      <c r="Q109" s="9"/>
       <c r="R109" s="3"/>
       <c r="S109" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -3012,11 +2909,11 @@
       <c r="N110" s="3"/>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
-      <c r="Q110" s="3"/>
+      <c r="Q110" s="9"/>
       <c r="R110" s="3"/>
       <c r="S110" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -3033,11 +2930,11 @@
       <c r="N111" s="3"/>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
-      <c r="Q111" s="3"/>
+      <c r="Q111" s="9"/>
       <c r="R111" s="3"/>
       <c r="S111" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -3054,11 +2951,11 @@
       <c r="N112" s="3"/>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
-      <c r="Q112" s="3"/>
+      <c r="Q112" s="9"/>
       <c r="R112" s="3"/>
       <c r="S112" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -3075,11 +2972,11 @@
       <c r="N113" s="3"/>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
-      <c r="Q113" s="3"/>
+      <c r="Q113" s="9"/>
       <c r="R113" s="3"/>
       <c r="S113" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -3096,11 +2993,11 @@
       <c r="N114" s="3"/>
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
-      <c r="Q114" s="3"/>
+      <c r="Q114" s="9"/>
       <c r="R114" s="3"/>
       <c r="S114" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3117,11 +3014,11 @@
       <c r="N115" s="3"/>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
-      <c r="Q115" s="3"/>
+      <c r="Q115" s="9"/>
       <c r="R115" s="3"/>
       <c r="S115" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3138,11 +3035,11 @@
       <c r="N116" s="3"/>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
-      <c r="Q116" s="3"/>
+      <c r="Q116" s="9"/>
       <c r="R116" s="3"/>
       <c r="S116" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3159,11 +3056,11 @@
       <c r="N117" s="3"/>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
-      <c r="Q117" s="3"/>
+      <c r="Q117" s="9"/>
       <c r="R117" s="3"/>
       <c r="S117" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row r="118" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3180,11 +3077,11 @@
       <c r="N118" s="3"/>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
-      <c r="Q118" s="3"/>
+      <c r="Q118" s="9"/>
       <c r="R118" s="3"/>
       <c r="S118" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3201,11 +3098,11 @@
       <c r="N119" s="3"/>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
-      <c r="Q119" s="3"/>
+      <c r="Q119" s="9"/>
       <c r="R119" s="3"/>
       <c r="S119" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3222,11 +3119,11 @@
       <c r="N120" s="3"/>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
-      <c r="Q120" s="3"/>
+      <c r="Q120" s="9"/>
       <c r="R120" s="3"/>
       <c r="S120" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3243,11 +3140,11 @@
       <c r="N121" s="3"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
-      <c r="Q121" s="3"/>
+      <c r="Q121" s="9"/>
       <c r="R121" s="3"/>
       <c r="S121" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3264,11 +3161,11 @@
       <c r="N122" s="3"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
-      <c r="Q122" s="3"/>
+      <c r="Q122" s="9"/>
       <c r="R122" s="3"/>
       <c r="S122" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3285,11 +3182,11 @@
       <c r="N123" s="3"/>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
-      <c r="Q123" s="3"/>
+      <c r="Q123" s="9"/>
       <c r="R123" s="3"/>
       <c r="S123" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3306,11 +3203,11 @@
       <c r="N124" s="3"/>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
-      <c r="Q124" s="3"/>
+      <c r="Q124" s="9"/>
       <c r="R124" s="3"/>
       <c r="S124" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3327,11 +3224,11 @@
       <c r="N125" s="3"/>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
-      <c r="Q125" s="3"/>
+      <c r="Q125" s="9"/>
       <c r="R125" s="3"/>
       <c r="S125" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3348,11 +3245,11 @@
       <c r="N126" s="3"/>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
-      <c r="Q126" s="3"/>
+      <c r="Q126" s="9"/>
       <c r="R126" s="3"/>
       <c r="S126" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row r="127" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3369,11 +3266,11 @@
       <c r="N127" s="3"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
-      <c r="Q127" s="3"/>
+      <c r="Q127" s="9"/>
       <c r="R127" s="3"/>
       <c r="S127" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3390,11 +3287,11 @@
       <c r="N128" s="3"/>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
-      <c r="Q128" s="3"/>
+      <c r="Q128" s="9"/>
       <c r="R128" s="3"/>
       <c r="S128" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row r="129" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3411,11 +3308,11 @@
       <c r="N129" s="3"/>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
-      <c r="Q129" s="3"/>
+      <c r="Q129" s="9"/>
       <c r="R129" s="3"/>
       <c r="S129" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row r="130" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3432,11 +3329,11 @@
       <c r="N130" s="3"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
-      <c r="Q130" s="3"/>
+      <c r="Q130" s="9"/>
       <c r="R130" s="3"/>
       <c r="S130" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row r="131" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3453,11 +3350,11 @@
       <c r="N131" s="3"/>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
-      <c r="Q131" s="3"/>
+      <c r="Q131" s="9"/>
       <c r="R131" s="3"/>
       <c r="S131" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row r="132" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3474,11 +3371,11 @@
       <c r="N132" s="3"/>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
-      <c r="Q132" s="3"/>
+      <c r="Q132" s="9"/>
       <c r="R132" s="3"/>
       <c r="S132" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row r="133" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3495,11 +3392,11 @@
       <c r="N133" s="3"/>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
-      <c r="Q133" s="3"/>
+      <c r="Q133" s="9"/>
       <c r="R133" s="3"/>
       <c r="S133" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+    <row r="134" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3516,11 +3413,11 @@
       <c r="N134" s="3"/>
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
-      <c r="Q134" s="3"/>
+      <c r="Q134" s="9"/>
       <c r="R134" s="3"/>
       <c r="S134" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row r="135" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3537,11 +3434,11 @@
       <c r="N135" s="3"/>
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
-      <c r="Q135" s="3"/>
+      <c r="Q135" s="9"/>
       <c r="R135" s="3"/>
       <c r="S135" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    <row r="136" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3558,11 +3455,11 @@
       <c r="N136" s="3"/>
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
-      <c r="Q136" s="3"/>
+      <c r="Q136" s="9"/>
       <c r="R136" s="3"/>
       <c r="S136" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row r="137" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3579,11 +3476,11 @@
       <c r="N137" s="3"/>
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
-      <c r="Q137" s="3"/>
+      <c r="Q137" s="9"/>
       <c r="R137" s="3"/>
       <c r="S137" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    <row r="138" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3600,11 +3497,11 @@
       <c r="N138" s="3"/>
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
-      <c r="Q138" s="3"/>
+      <c r="Q138" s="9"/>
       <c r="R138" s="3"/>
       <c r="S138" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+    <row r="139" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3621,11 +3518,11 @@
       <c r="N139" s="3"/>
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
-      <c r="Q139" s="3"/>
+      <c r="Q139" s="9"/>
       <c r="R139" s="3"/>
       <c r="S139" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+    <row r="140" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3642,11 +3539,11 @@
       <c r="N140" s="3"/>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
-      <c r="Q140" s="3"/>
+      <c r="Q140" s="9"/>
       <c r="R140" s="3"/>
       <c r="S140" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+    <row r="141" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3663,11 +3560,11 @@
       <c r="N141" s="3"/>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
-      <c r="Q141" s="3"/>
+      <c r="Q141" s="9"/>
       <c r="R141" s="3"/>
       <c r="S141" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+    <row r="142" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3684,11 +3581,11 @@
       <c r="N142" s="3"/>
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
-      <c r="Q142" s="3"/>
+      <c r="Q142" s="9"/>
       <c r="R142" s="3"/>
       <c r="S142" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    <row r="143" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3705,11 +3602,11 @@
       <c r="N143" s="3"/>
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
-      <c r="Q143" s="3"/>
+      <c r="Q143" s="9"/>
       <c r="R143" s="3"/>
       <c r="S143" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+    <row r="144" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3726,11 +3623,11 @@
       <c r="N144" s="3"/>
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
-      <c r="Q144" s="3"/>
+      <c r="Q144" s="9"/>
       <c r="R144" s="3"/>
       <c r="S144" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+    <row r="145" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3747,11 +3644,11 @@
       <c r="N145" s="3"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
-      <c r="Q145" s="3"/>
+      <c r="Q145" s="9"/>
       <c r="R145" s="3"/>
       <c r="S145" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+    <row r="146" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3768,11 +3665,11 @@
       <c r="N146" s="3"/>
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
-      <c r="Q146" s="3"/>
+      <c r="Q146" s="9"/>
       <c r="R146" s="3"/>
       <c r="S146" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    <row r="147" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3789,11 +3686,11 @@
       <c r="N147" s="3"/>
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
-      <c r="Q147" s="3"/>
+      <c r="Q147" s="9"/>
       <c r="R147" s="3"/>
       <c r="S147" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    <row r="148" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3810,11 +3707,11 @@
       <c r="N148" s="3"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
-      <c r="Q148" s="3"/>
+      <c r="Q148" s="9"/>
       <c r="R148" s="3"/>
       <c r="S148" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    <row r="149" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3831,11 +3728,11 @@
       <c r="N149" s="3"/>
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
-      <c r="Q149" s="3"/>
+      <c r="Q149" s="9"/>
       <c r="R149" s="3"/>
       <c r="S149" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+    <row r="150" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3852,11 +3749,11 @@
       <c r="N150" s="3"/>
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
-      <c r="Q150" s="3"/>
+      <c r="Q150" s="9"/>
       <c r="R150" s="3"/>
       <c r="S150" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    <row r="151" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3873,11 +3770,11 @@
       <c r="N151" s="3"/>
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
-      <c r="Q151" s="3"/>
+      <c r="Q151" s="9"/>
       <c r="R151" s="3"/>
       <c r="S151" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+    <row r="152" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3894,11 +3791,11 @@
       <c r="N152" s="3"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
-      <c r="Q152" s="3"/>
+      <c r="Q152" s="9"/>
       <c r="R152" s="3"/>
       <c r="S152" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+    <row r="153" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3915,11 +3812,11 @@
       <c r="N153" s="3"/>
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
-      <c r="Q153" s="3"/>
+      <c r="Q153" s="9"/>
       <c r="R153" s="3"/>
       <c r="S153" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+    <row r="154" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3936,11 +3833,11 @@
       <c r="N154" s="3"/>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
-      <c r="Q154" s="3"/>
+      <c r="Q154" s="9"/>
       <c r="R154" s="3"/>
       <c r="S154" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+    <row r="155" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3957,11 +3854,11 @@
       <c r="N155" s="3"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
-      <c r="Q155" s="3"/>
+      <c r="Q155" s="9"/>
       <c r="R155" s="3"/>
       <c r="S155" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+    <row r="156" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3978,11 +3875,11 @@
       <c r="N156" s="3"/>
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
-      <c r="Q156" s="3"/>
+      <c r="Q156" s="9"/>
       <c r="R156" s="3"/>
       <c r="S156" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+    <row r="157" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3999,11 +3896,11 @@
       <c r="N157" s="3"/>
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
-      <c r="Q157" s="3"/>
+      <c r="Q157" s="9"/>
       <c r="R157" s="3"/>
       <c r="S157" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+    <row r="158" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -4020,11 +3917,11 @@
       <c r="N158" s="3"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
-      <c r="Q158" s="3"/>
+      <c r="Q158" s="9"/>
       <c r="R158" s="3"/>
       <c r="S158" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+    <row r="159" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -4041,11 +3938,11 @@
       <c r="N159" s="3"/>
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
-      <c r="Q159" s="3"/>
+      <c r="Q159" s="9"/>
       <c r="R159" s="3"/>
       <c r="S159" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+    <row r="160" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -4062,11 +3959,11 @@
       <c r="N160" s="3"/>
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
-      <c r="Q160" s="3"/>
+      <c r="Q160" s="9"/>
       <c r="R160" s="3"/>
       <c r="S160" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+    <row r="161" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -4083,11 +3980,11 @@
       <c r="N161" s="3"/>
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
-      <c r="Q161" s="3"/>
+      <c r="Q161" s="9"/>
       <c r="R161" s="3"/>
       <c r="S161" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+    <row r="162" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4104,11 +4001,11 @@
       <c r="N162" s="3"/>
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
-      <c r="Q162" s="3"/>
+      <c r="Q162" s="9"/>
       <c r="R162" s="3"/>
       <c r="S162" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+    <row r="163" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4125,11 +4022,11 @@
       <c r="N163" s="3"/>
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
-      <c r="Q163" s="3"/>
+      <c r="Q163" s="9"/>
       <c r="R163" s="3"/>
       <c r="S163" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+    <row r="164" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4146,11 +4043,11 @@
       <c r="N164" s="3"/>
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
-      <c r="Q164" s="3"/>
+      <c r="Q164" s="9"/>
       <c r="R164" s="3"/>
       <c r="S164" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+    <row r="165" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4167,11 +4064,11 @@
       <c r="N165" s="3"/>
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
-      <c r="Q165" s="3"/>
+      <c r="Q165" s="9"/>
       <c r="R165" s="3"/>
       <c r="S165" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+    <row r="166" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4188,11 +4085,11 @@
       <c r="N166" s="3"/>
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
-      <c r="Q166" s="3"/>
+      <c r="Q166" s="9"/>
       <c r="R166" s="3"/>
       <c r="S166" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+    <row r="167" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4209,11 +4106,11 @@
       <c r="N167" s="3"/>
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
-      <c r="Q167" s="3"/>
+      <c r="Q167" s="9"/>
       <c r="R167" s="3"/>
       <c r="S167" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+    <row r="168" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4230,11 +4127,11 @@
       <c r="N168" s="3"/>
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
-      <c r="Q168" s="3"/>
+      <c r="Q168" s="9"/>
       <c r="R168" s="3"/>
       <c r="S168" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+    <row r="169" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4251,11 +4148,11 @@
       <c r="N169" s="3"/>
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
-      <c r="Q169" s="3"/>
+      <c r="Q169" s="9"/>
       <c r="R169" s="3"/>
       <c r="S169" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+    <row r="170" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4272,11 +4169,11 @@
       <c r="N170" s="3"/>
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
-      <c r="Q170" s="3"/>
+      <c r="Q170" s="9"/>
       <c r="R170" s="3"/>
       <c r="S170" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+    <row r="171" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4293,11 +4190,11 @@
       <c r="N171" s="3"/>
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
-      <c r="Q171" s="3"/>
+      <c r="Q171" s="9"/>
       <c r="R171" s="3"/>
       <c r="S171" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+    <row r="172" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4314,11 +4211,11 @@
       <c r="N172" s="3"/>
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
-      <c r="Q172" s="3"/>
+      <c r="Q172" s="9"/>
       <c r="R172" s="3"/>
       <c r="S172" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+    <row r="173" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4335,11 +4232,11 @@
       <c r="N173" s="3"/>
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
-      <c r="Q173" s="3"/>
+      <c r="Q173" s="9"/>
       <c r="R173" s="3"/>
       <c r="S173" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+    <row r="174" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4356,11 +4253,11 @@
       <c r="N174" s="3"/>
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
-      <c r="Q174" s="3"/>
+      <c r="Q174" s="9"/>
       <c r="R174" s="3"/>
       <c r="S174" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+    <row r="175" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4377,11 +4274,11 @@
       <c r="N175" s="3"/>
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
-      <c r="Q175" s="3"/>
+      <c r="Q175" s="9"/>
       <c r="R175" s="3"/>
       <c r="S175" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+    <row r="176" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4398,11 +4295,11 @@
       <c r="N176" s="3"/>
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
-      <c r="Q176" s="3"/>
+      <c r="Q176" s="9"/>
       <c r="R176" s="3"/>
       <c r="S176" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+    <row r="177" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4419,11 +4316,11 @@
       <c r="N177" s="3"/>
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
-      <c r="Q177" s="3"/>
+      <c r="Q177" s="9"/>
       <c r="R177" s="3"/>
       <c r="S177" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+    <row r="178" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4440,11 +4337,11 @@
       <c r="N178" s="3"/>
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
-      <c r="Q178" s="3"/>
+      <c r="Q178" s="9"/>
       <c r="R178" s="3"/>
       <c r="S178" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+    <row r="179" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4461,11 +4358,11 @@
       <c r="N179" s="3"/>
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
-      <c r="Q179" s="3"/>
+      <c r="Q179" s="9"/>
       <c r="R179" s="3"/>
       <c r="S179" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+    <row r="180" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4482,11 +4379,11 @@
       <c r="N180" s="3"/>
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
-      <c r="Q180" s="3"/>
+      <c r="Q180" s="9"/>
       <c r="R180" s="3"/>
       <c r="S180" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+    <row r="181" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4503,11 +4400,11 @@
       <c r="N181" s="3"/>
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
-      <c r="Q181" s="3"/>
+      <c r="Q181" s="9"/>
       <c r="R181" s="3"/>
       <c r="S181" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+    <row r="182" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4524,11 +4421,11 @@
       <c r="N182" s="3"/>
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
-      <c r="Q182" s="3"/>
+      <c r="Q182" s="9"/>
       <c r="R182" s="3"/>
       <c r="S182" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+    <row r="183" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4545,11 +4442,11 @@
       <c r="N183" s="3"/>
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
-      <c r="Q183" s="3"/>
+      <c r="Q183" s="9"/>
       <c r="R183" s="3"/>
       <c r="S183" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+    <row r="184" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4566,11 +4463,11 @@
       <c r="N184" s="3"/>
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
-      <c r="Q184" s="3"/>
+      <c r="Q184" s="9"/>
       <c r="R184" s="3"/>
       <c r="S184" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+    <row r="185" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4587,11 +4484,11 @@
       <c r="N185" s="3"/>
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
-      <c r="Q185" s="3"/>
+      <c r="Q185" s="9"/>
       <c r="R185" s="3"/>
       <c r="S185" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+    <row r="186" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4608,11 +4505,11 @@
       <c r="N186" s="3"/>
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
-      <c r="Q186" s="3"/>
+      <c r="Q186" s="9"/>
       <c r="R186" s="3"/>
       <c r="S186" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+    <row r="187" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4629,11 +4526,11 @@
       <c r="N187" s="3"/>
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
-      <c r="Q187" s="3"/>
+      <c r="Q187" s="9"/>
       <c r="R187" s="3"/>
       <c r="S187" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+    <row r="188" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4650,11 +4547,11 @@
       <c r="N188" s="3"/>
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
-      <c r="Q188" s="3"/>
+      <c r="Q188" s="9"/>
       <c r="R188" s="3"/>
       <c r="S188" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+    <row r="189" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4671,11 +4568,11 @@
       <c r="N189" s="3"/>
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
-      <c r="Q189" s="3"/>
+      <c r="Q189" s="9"/>
       <c r="R189" s="3"/>
       <c r="S189" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+    <row r="190" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4692,11 +4589,11 @@
       <c r="N190" s="3"/>
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
-      <c r="Q190" s="3"/>
+      <c r="Q190" s="9"/>
       <c r="R190" s="3"/>
       <c r="S190" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+    <row r="191" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -4713,51 +4610,9 @@
       <c r="N191" s="3"/>
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
-      <c r="Q191" s="3"/>
+      <c r="Q191" s="9"/>
       <c r="R191" s="3"/>
       <c r="S191" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="2"/>
-      <c r="H192" s="2"/>
-      <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
-      <c r="K192" s="1"/>
-      <c r="L192" s="1"/>
-      <c r="M192" s="1"/>
-      <c r="N192" s="3"/>
-      <c r="O192" s="1"/>
-      <c r="P192" s="1"/>
-      <c r="Q192" s="3"/>
-      <c r="R192" s="3"/>
-      <c r="S192" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
-      <c r="K193" s="1"/>
-      <c r="L193" s="1"/>
-      <c r="M193" s="1"/>
-      <c r="N193" s="3"/>
-      <c r="O193" s="1"/>
-      <c r="P193" s="1"/>
-      <c r="Q193" s="3"/>
-      <c r="R193" s="3"/>
-      <c r="S193" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cypress/fixtures/excelData.xlsx
+++ b/cypress/fixtures/excelData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\GitHub\Test\Adactin\cypress\fixtures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Adactin\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="8510"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>username</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>27/09/2022</t>
+  </si>
+  <si>
+    <t>Invalid_username</t>
+  </si>
+  <si>
+    <t>Invalid_password</t>
+  </si>
+  <si>
+    <t>Francis2525</t>
+  </si>
+  <si>
+    <t>Francis*123</t>
   </si>
 </sst>
 </file>
@@ -509,25 +521,38 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S191"/>
+  <dimension ref="A1:U191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,8 +610,14 @@
       <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -644,8 +675,14 @@
       <c r="S2" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -666,7 +703,7 @@
       <c r="R3" s="3"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -687,7 +724,7 @@
       <c r="R4" s="3"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -708,7 +745,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -729,7 +766,7 @@
       <c r="R6" s="3"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -750,7 +787,7 @@
       <c r="R7" s="3"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -771,7 +808,7 @@
       <c r="R8" s="3"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -792,7 +829,7 @@
       <c r="R9" s="3"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -813,7 +850,7 @@
       <c r="R10" s="3"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -834,7 +871,7 @@
       <c r="R11" s="3"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -855,7 +892,7 @@
       <c r="R12" s="3"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -876,7 +913,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -897,7 +934,7 @@
       <c r="R14" s="3"/>
       <c r="S14" s="1"/>
     </row>
-    <row r="15" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -918,7 +955,7 @@
       <c r="R15" s="3"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -939,7 +976,7 @@
       <c r="R16" s="3"/>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -960,7 +997,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -981,7 +1018,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1002,7 +1039,7 @@
       <c r="R19" s="3"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1023,7 +1060,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1044,7 +1081,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1065,7 +1102,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1086,7 +1123,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1107,7 +1144,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1128,7 +1165,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1149,7 +1186,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1170,7 +1207,7 @@
       <c r="R27" s="3"/>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1191,7 +1228,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1212,7 +1249,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="1"/>
     </row>
-    <row r="30" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1233,7 +1270,7 @@
       <c r="R30" s="3"/>
       <c r="S30" s="1"/>
     </row>
-    <row r="31" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1254,7 +1291,7 @@
       <c r="R31" s="3"/>
       <c r="S31" s="1"/>
     </row>
-    <row r="32" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1275,7 +1312,7 @@
       <c r="R32" s="3"/>
       <c r="S32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1296,7 +1333,7 @@
       <c r="R33" s="3"/>
       <c r="S33" s="1"/>
     </row>
-    <row r="34" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1317,7 +1354,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1338,7 +1375,7 @@
       <c r="R35" s="3"/>
       <c r="S35" s="1"/>
     </row>
-    <row r="36" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1359,7 +1396,7 @@
       <c r="R36" s="3"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1380,7 +1417,7 @@
       <c r="R37" s="3"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1401,7 +1438,7 @@
       <c r="R38" s="3"/>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1422,7 +1459,7 @@
       <c r="R39" s="3"/>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1443,7 +1480,7 @@
       <c r="R40" s="3"/>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1464,7 +1501,7 @@
       <c r="R41" s="3"/>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1485,7 +1522,7 @@
       <c r="R42" s="3"/>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1506,7 +1543,7 @@
       <c r="R43" s="3"/>
       <c r="S43" s="1"/>
     </row>
-    <row r="44" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1527,7 +1564,7 @@
       <c r="R44" s="3"/>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1548,7 +1585,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1569,7 +1606,7 @@
       <c r="R46" s="3"/>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1590,7 +1627,7 @@
       <c r="R47" s="3"/>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1611,7 +1648,7 @@
       <c r="R48" s="3"/>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1632,7 +1669,7 @@
       <c r="R49" s="3"/>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1653,7 +1690,7 @@
       <c r="R50" s="3"/>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -1674,7 +1711,7 @@
       <c r="R51" s="3"/>
       <c r="S51" s="1"/>
     </row>
-    <row r="52" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1695,7 +1732,7 @@
       <c r="R52" s="3"/>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -1716,7 +1753,7 @@
       <c r="R53" s="3"/>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1737,7 +1774,7 @@
       <c r="R54" s="3"/>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1758,7 +1795,7 @@
       <c r="R55" s="3"/>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1779,7 +1816,7 @@
       <c r="R56" s="3"/>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1800,7 +1837,7 @@
       <c r="R57" s="3"/>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1821,7 +1858,7 @@
       <c r="R58" s="3"/>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1842,7 +1879,7 @@
       <c r="R59" s="3"/>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1863,7 +1900,7 @@
       <c r="R60" s="3"/>
       <c r="S60" s="1"/>
     </row>
-    <row r="61" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1884,7 +1921,7 @@
       <c r="R61" s="3"/>
       <c r="S61" s="1"/>
     </row>
-    <row r="62" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1905,7 +1942,7 @@
       <c r="R62" s="3"/>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1926,7 +1963,7 @@
       <c r="R63" s="3"/>
       <c r="S63" s="1"/>
     </row>
-    <row r="64" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1947,7 +1984,7 @@
       <c r="R64" s="3"/>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -1968,7 +2005,7 @@
       <c r="R65" s="3"/>
       <c r="S65" s="1"/>
     </row>
-    <row r="66" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1989,7 +2026,7 @@
       <c r="R66" s="3"/>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2010,7 +2047,7 @@
       <c r="R67" s="3"/>
       <c r="S67" s="1"/>
     </row>
-    <row r="68" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2031,7 +2068,7 @@
       <c r="R68" s="3"/>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2052,7 +2089,7 @@
       <c r="R69" s="3"/>
       <c r="S69" s="1"/>
     </row>
-    <row r="70" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2073,7 +2110,7 @@
       <c r="R70" s="3"/>
       <c r="S70" s="1"/>
     </row>
-    <row r="71" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2094,7 +2131,7 @@
       <c r="R71" s="3"/>
       <c r="S71" s="1"/>
     </row>
-    <row r="72" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2115,7 +2152,7 @@
       <c r="R72" s="3"/>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2136,7 +2173,7 @@
       <c r="R73" s="3"/>
       <c r="S73" s="1"/>
     </row>
-    <row r="74" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2157,7 +2194,7 @@
       <c r="R74" s="3"/>
       <c r="S74" s="1"/>
     </row>
-    <row r="75" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2178,7 +2215,7 @@
       <c r="R75" s="3"/>
       <c r="S75" s="1"/>
     </row>
-    <row r="76" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2199,7 +2236,7 @@
       <c r="R76" s="3"/>
       <c r="S76" s="1"/>
     </row>
-    <row r="77" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2220,7 +2257,7 @@
       <c r="R77" s="3"/>
       <c r="S77" s="1"/>
     </row>
-    <row r="78" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2241,7 +2278,7 @@
       <c r="R78" s="3"/>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2262,7 +2299,7 @@
       <c r="R79" s="3"/>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2283,7 +2320,7 @@
       <c r="R80" s="3"/>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2304,7 +2341,7 @@
       <c r="R81" s="3"/>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2325,7 +2362,7 @@
       <c r="R82" s="3"/>
       <c r="S82" s="1"/>
     </row>
-    <row r="83" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2346,7 +2383,7 @@
       <c r="R83" s="3"/>
       <c r="S83" s="1"/>
     </row>
-    <row r="84" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2367,7 +2404,7 @@
       <c r="R84" s="3"/>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2388,7 +2425,7 @@
       <c r="R85" s="3"/>
       <c r="S85" s="1"/>
     </row>
-    <row r="86" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2409,7 +2446,7 @@
       <c r="R86" s="3"/>
       <c r="S86" s="1"/>
     </row>
-    <row r="87" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2430,7 +2467,7 @@
       <c r="R87" s="3"/>
       <c r="S87" s="1"/>
     </row>
-    <row r="88" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2451,7 +2488,7 @@
       <c r="R88" s="3"/>
       <c r="S88" s="1"/>
     </row>
-    <row r="89" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2472,7 +2509,7 @@
       <c r="R89" s="3"/>
       <c r="S89" s="1"/>
     </row>
-    <row r="90" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2493,7 +2530,7 @@
       <c r="R90" s="3"/>
       <c r="S90" s="1"/>
     </row>
-    <row r="91" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2514,7 +2551,7 @@
       <c r="R91" s="3"/>
       <c r="S91" s="1"/>
     </row>
-    <row r="92" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2535,7 +2572,7 @@
       <c r="R92" s="3"/>
       <c r="S92" s="1"/>
     </row>
-    <row r="93" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2556,7 +2593,7 @@
       <c r="R93" s="3"/>
       <c r="S93" s="1"/>
     </row>
-    <row r="94" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2577,7 +2614,7 @@
       <c r="R94" s="3"/>
       <c r="S94" s="1"/>
     </row>
-    <row r="95" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2598,7 +2635,7 @@
       <c r="R95" s="3"/>
       <c r="S95" s="1"/>
     </row>
-    <row r="96" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2619,7 +2656,7 @@
       <c r="R96" s="3"/>
       <c r="S96" s="1"/>
     </row>
-    <row r="97" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2640,7 +2677,7 @@
       <c r="R97" s="3"/>
       <c r="S97" s="1"/>
     </row>
-    <row r="98" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2661,7 +2698,7 @@
       <c r="R98" s="3"/>
       <c r="S98" s="1"/>
     </row>
-    <row r="99" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2682,7 +2719,7 @@
       <c r="R99" s="3"/>
       <c r="S99" s="1"/>
     </row>
-    <row r="100" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2703,7 +2740,7 @@
       <c r="R100" s="3"/>
       <c r="S100" s="1"/>
     </row>
-    <row r="101" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2724,7 +2761,7 @@
       <c r="R101" s="3"/>
       <c r="S101" s="1"/>
     </row>
-    <row r="102" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2745,7 +2782,7 @@
       <c r="R102" s="3"/>
       <c r="S102" s="1"/>
     </row>
-    <row r="103" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2766,7 +2803,7 @@
       <c r="R103" s="3"/>
       <c r="S103" s="1"/>
     </row>
-    <row r="104" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2787,7 +2824,7 @@
       <c r="R104" s="3"/>
       <c r="S104" s="1"/>
     </row>
-    <row r="105" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2808,7 +2845,7 @@
       <c r="R105" s="3"/>
       <c r="S105" s="1"/>
     </row>
-    <row r="106" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2829,7 +2866,7 @@
       <c r="R106" s="3"/>
       <c r="S106" s="1"/>
     </row>
-    <row r="107" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2850,7 +2887,7 @@
       <c r="R107" s="3"/>
       <c r="S107" s="1"/>
     </row>
-    <row r="108" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2871,7 +2908,7 @@
       <c r="R108" s="3"/>
       <c r="S108" s="1"/>
     </row>
-    <row r="109" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2892,7 +2929,7 @@
       <c r="R109" s="3"/>
       <c r="S109" s="1"/>
     </row>
-    <row r="110" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2913,7 +2950,7 @@
       <c r="R110" s="3"/>
       <c r="S110" s="1"/>
     </row>
-    <row r="111" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2934,7 +2971,7 @@
       <c r="R111" s="3"/>
       <c r="S111" s="1"/>
     </row>
-    <row r="112" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2955,7 +2992,7 @@
       <c r="R112" s="3"/>
       <c r="S112" s="1"/>
     </row>
-    <row r="113" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2976,7 +3013,7 @@
       <c r="R113" s="3"/>
       <c r="S113" s="1"/>
     </row>
-    <row r="114" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -2997,7 +3034,7 @@
       <c r="R114" s="3"/>
       <c r="S114" s="1"/>
     </row>
-    <row r="115" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -3018,7 +3055,7 @@
       <c r="R115" s="3"/>
       <c r="S115" s="1"/>
     </row>
-    <row r="116" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -3039,7 +3076,7 @@
       <c r="R116" s="3"/>
       <c r="S116" s="1"/>
     </row>
-    <row r="117" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -3060,7 +3097,7 @@
       <c r="R117" s="3"/>
       <c r="S117" s="1"/>
     </row>
-    <row r="118" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -3081,7 +3118,7 @@
       <c r="R118" s="3"/>
       <c r="S118" s="1"/>
     </row>
-    <row r="119" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -3102,7 +3139,7 @@
       <c r="R119" s="3"/>
       <c r="S119" s="1"/>
     </row>
-    <row r="120" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -3123,7 +3160,7 @@
       <c r="R120" s="3"/>
       <c r="S120" s="1"/>
     </row>
-    <row r="121" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -3144,7 +3181,7 @@
       <c r="R121" s="3"/>
       <c r="S121" s="1"/>
     </row>
-    <row r="122" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -3165,7 +3202,7 @@
       <c r="R122" s="3"/>
       <c r="S122" s="1"/>
     </row>
-    <row r="123" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -3186,7 +3223,7 @@
       <c r="R123" s="3"/>
       <c r="S123" s="1"/>
     </row>
-    <row r="124" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -3207,7 +3244,7 @@
       <c r="R124" s="3"/>
       <c r="S124" s="1"/>
     </row>
-    <row r="125" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -3228,7 +3265,7 @@
       <c r="R125" s="3"/>
       <c r="S125" s="1"/>
     </row>
-    <row r="126" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -3249,7 +3286,7 @@
       <c r="R126" s="3"/>
       <c r="S126" s="1"/>
     </row>
-    <row r="127" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -3270,7 +3307,7 @@
       <c r="R127" s="3"/>
       <c r="S127" s="1"/>
     </row>
-    <row r="128" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3291,7 +3328,7 @@
       <c r="R128" s="3"/>
       <c r="S128" s="1"/>
     </row>
-    <row r="129" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -3312,7 +3349,7 @@
       <c r="R129" s="3"/>
       <c r="S129" s="1"/>
     </row>
-    <row r="130" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -3333,7 +3370,7 @@
       <c r="R130" s="3"/>
       <c r="S130" s="1"/>
     </row>
-    <row r="131" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -3354,7 +3391,7 @@
       <c r="R131" s="3"/>
       <c r="S131" s="1"/>
     </row>
-    <row r="132" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -3375,7 +3412,7 @@
       <c r="R132" s="3"/>
       <c r="S132" s="1"/>
     </row>
-    <row r="133" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -3396,7 +3433,7 @@
       <c r="R133" s="3"/>
       <c r="S133" s="1"/>
     </row>
-    <row r="134" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3417,7 +3454,7 @@
       <c r="R134" s="3"/>
       <c r="S134" s="1"/>
     </row>
-    <row r="135" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -3438,7 +3475,7 @@
       <c r="R135" s="3"/>
       <c r="S135" s="1"/>
     </row>
-    <row r="136" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -3459,7 +3496,7 @@
       <c r="R136" s="3"/>
       <c r="S136" s="1"/>
     </row>
-    <row r="137" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -3480,7 +3517,7 @@
       <c r="R137" s="3"/>
       <c r="S137" s="1"/>
     </row>
-    <row r="138" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -3501,7 +3538,7 @@
       <c r="R138" s="3"/>
       <c r="S138" s="1"/>
     </row>
-    <row r="139" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -3522,7 +3559,7 @@
       <c r="R139" s="3"/>
       <c r="S139" s="1"/>
     </row>
-    <row r="140" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3543,7 +3580,7 @@
       <c r="R140" s="3"/>
       <c r="S140" s="1"/>
     </row>
-    <row r="141" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -3564,7 +3601,7 @@
       <c r="R141" s="3"/>
       <c r="S141" s="1"/>
     </row>
-    <row r="142" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -3585,7 +3622,7 @@
       <c r="R142" s="3"/>
       <c r="S142" s="1"/>
     </row>
-    <row r="143" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -3606,7 +3643,7 @@
       <c r="R143" s="3"/>
       <c r="S143" s="1"/>
     </row>
-    <row r="144" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -3627,7 +3664,7 @@
       <c r="R144" s="3"/>
       <c r="S144" s="1"/>
     </row>
-    <row r="145" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -3648,7 +3685,7 @@
       <c r="R145" s="3"/>
       <c r="S145" s="1"/>
     </row>
-    <row r="146" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3669,7 +3706,7 @@
       <c r="R146" s="3"/>
       <c r="S146" s="1"/>
     </row>
-    <row r="147" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3690,7 +3727,7 @@
       <c r="R147" s="3"/>
       <c r="S147" s="1"/>
     </row>
-    <row r="148" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3711,7 +3748,7 @@
       <c r="R148" s="3"/>
       <c r="S148" s="1"/>
     </row>
-    <row r="149" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3732,7 +3769,7 @@
       <c r="R149" s="3"/>
       <c r="S149" s="1"/>
     </row>
-    <row r="150" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -3753,7 +3790,7 @@
       <c r="R150" s="3"/>
       <c r="S150" s="1"/>
     </row>
-    <row r="151" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -3774,7 +3811,7 @@
       <c r="R151" s="3"/>
       <c r="S151" s="1"/>
     </row>
-    <row r="152" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -3795,7 +3832,7 @@
       <c r="R152" s="3"/>
       <c r="S152" s="1"/>
     </row>
-    <row r="153" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -3816,7 +3853,7 @@
       <c r="R153" s="3"/>
       <c r="S153" s="1"/>
     </row>
-    <row r="154" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3837,7 +3874,7 @@
       <c r="R154" s="3"/>
       <c r="S154" s="1"/>
     </row>
-    <row r="155" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -3858,7 +3895,7 @@
       <c r="R155" s="3"/>
       <c r="S155" s="1"/>
     </row>
-    <row r="156" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -3879,7 +3916,7 @@
       <c r="R156" s="3"/>
       <c r="S156" s="1"/>
     </row>
-    <row r="157" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -3900,7 +3937,7 @@
       <c r="R157" s="3"/>
       <c r="S157" s="1"/>
     </row>
-    <row r="158" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -3921,7 +3958,7 @@
       <c r="R158" s="3"/>
       <c r="S158" s="1"/>
     </row>
-    <row r="159" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -3942,7 +3979,7 @@
       <c r="R159" s="3"/>
       <c r="S159" s="1"/>
     </row>
-    <row r="160" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -3963,7 +4000,7 @@
       <c r="R160" s="3"/>
       <c r="S160" s="1"/>
     </row>
-    <row r="161" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -3984,7 +4021,7 @@
       <c r="R161" s="3"/>
       <c r="S161" s="1"/>
     </row>
-    <row r="162" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -4005,7 +4042,7 @@
       <c r="R162" s="3"/>
       <c r="S162" s="1"/>
     </row>
-    <row r="163" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -4026,7 +4063,7 @@
       <c r="R163" s="3"/>
       <c r="S163" s="1"/>
     </row>
-    <row r="164" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -4047,7 +4084,7 @@
       <c r="R164" s="3"/>
       <c r="S164" s="1"/>
     </row>
-    <row r="165" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -4068,7 +4105,7 @@
       <c r="R165" s="3"/>
       <c r="S165" s="1"/>
     </row>
-    <row r="166" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -4089,7 +4126,7 @@
       <c r="R166" s="3"/>
       <c r="S166" s="1"/>
     </row>
-    <row r="167" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -4110,7 +4147,7 @@
       <c r="R167" s="3"/>
       <c r="S167" s="1"/>
     </row>
-    <row r="168" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -4131,7 +4168,7 @@
       <c r="R168" s="3"/>
       <c r="S168" s="1"/>
     </row>
-    <row r="169" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4152,7 +4189,7 @@
       <c r="R169" s="3"/>
       <c r="S169" s="1"/>
     </row>
-    <row r="170" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4173,7 +4210,7 @@
       <c r="R170" s="3"/>
       <c r="S170" s="1"/>
     </row>
-    <row r="171" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4194,7 +4231,7 @@
       <c r="R171" s="3"/>
       <c r="S171" s="1"/>
     </row>
-    <row r="172" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4215,7 +4252,7 @@
       <c r="R172" s="3"/>
       <c r="S172" s="1"/>
     </row>
-    <row r="173" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -4236,7 +4273,7 @@
       <c r="R173" s="3"/>
       <c r="S173" s="1"/>
     </row>
-    <row r="174" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -4257,7 +4294,7 @@
       <c r="R174" s="3"/>
       <c r="S174" s="1"/>
     </row>
-    <row r="175" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -4278,7 +4315,7 @@
       <c r="R175" s="3"/>
       <c r="S175" s="1"/>
     </row>
-    <row r="176" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -4299,7 +4336,7 @@
       <c r="R176" s="3"/>
       <c r="S176" s="1"/>
     </row>
-    <row r="177" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -4320,7 +4357,7 @@
       <c r="R177" s="3"/>
       <c r="S177" s="1"/>
     </row>
-    <row r="178" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -4341,7 +4378,7 @@
       <c r="R178" s="3"/>
       <c r="S178" s="1"/>
     </row>
-    <row r="179" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -4362,7 +4399,7 @@
       <c r="R179" s="3"/>
       <c r="S179" s="1"/>
     </row>
-    <row r="180" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -4383,7 +4420,7 @@
       <c r="R180" s="3"/>
       <c r="S180" s="1"/>
     </row>
-    <row r="181" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -4404,7 +4441,7 @@
       <c r="R181" s="3"/>
       <c r="S181" s="1"/>
     </row>
-    <row r="182" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -4425,7 +4462,7 @@
       <c r="R182" s="3"/>
       <c r="S182" s="1"/>
     </row>
-    <row r="183" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -4446,7 +4483,7 @@
       <c r="R183" s="3"/>
       <c r="S183" s="1"/>
     </row>
-    <row r="184" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -4467,7 +4504,7 @@
       <c r="R184" s="3"/>
       <c r="S184" s="1"/>
     </row>
-    <row r="185" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -4488,7 +4525,7 @@
       <c r="R185" s="3"/>
       <c r="S185" s="1"/>
     </row>
-    <row r="186" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -4509,7 +4546,7 @@
       <c r="R186" s="3"/>
       <c r="S186" s="1"/>
     </row>
-    <row r="187" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -4530,7 +4567,7 @@
       <c r="R187" s="3"/>
       <c r="S187" s="1"/>
     </row>
-    <row r="188" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -4551,7 +4588,7 @@
       <c r="R188" s="3"/>
       <c r="S188" s="1"/>
     </row>
-    <row r="189" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -4572,7 +4609,7 @@
       <c r="R189" s="3"/>
       <c r="S189" s="1"/>
     </row>
-    <row r="190" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -4593,7 +4630,7 @@
       <c r="R190" s="3"/>
       <c r="S190" s="1"/>
     </row>
-    <row r="191" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
